--- a/data/Template/SpacesTemplate.xlsx
+++ b/data/Template/SpacesTemplate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="840" yWindow="1335" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Spaces" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Type</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Spaces</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -867,9 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -877,37 +885,36 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -945,15 +952,27 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,19 +1090,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27160193-481B-4ACB-ACDB-A181ADC09E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B9C542D-EA26-4885-A1DA-791023DBF90C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1105,9 +1120,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B9C542D-EA26-4885-A1DA-791023DBF90C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27160193-481B-4ACB-ACDB-A181ADC09E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>